--- a/docs/CareConnect-Patient-1.xlsx
+++ b/docs/CareConnect-Patient-1.xlsx
@@ -226,8 +226,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -343,7 +342,7 @@
     <t>ethnicCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-EthnicCategory-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-EthnicCategory-1}
 </t>
   </si>
   <si>
@@ -364,7 +363,7 @@
     <t>religiousAffiliation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ReligiousAffiliation-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-ReligiousAffiliation-1}
 </t>
   </si>
   <si>
@@ -390,7 +389,7 @@
     <t>residentialStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ResidentialStatus-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-ResidentialStatus-1}
 </t>
   </si>
   <si>
@@ -403,7 +402,7 @@
     <t>treatmentCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-TreatmentCategory-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-TreatmentCategory-1}
 </t>
   </si>
   <si>
@@ -416,7 +415,7 @@
     <t>nhsCommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NHSCommunication-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-NHSCommunication-1}
 </t>
   </si>
   <si>
@@ -545,7 +544,7 @@
     <t>Human Language</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-HumanLanguage-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-HumanLanguage-1</t>
   </si>
   <si>
     <t>preferred</t>
@@ -576,7 +575,7 @@
     <t>Language Ability Mode</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-LanguageAbilityMode-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-LanguageAbilityMode-1</t>
   </si>
   <si>
     <t>communicationProficiency</t>
@@ -594,7 +593,7 @@
     <t>Language Ability Proficiency</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-LanguageAbilityProficiency-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-LanguageAbilityProficiency-1</t>
   </si>
   <si>
     <t>interpreterRequired</t>
@@ -609,7 +608,7 @@
     <t>Patient.extension.url</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NHSCommunication-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-NHSCommunication-1</t>
   </si>
   <si>
     <t>Patient.extension.value[x]</t>
@@ -631,7 +630,7 @@
     <t>nominatedPharmacy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NominatedPharmacy-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-NominatedPharmacy-1}
 </t>
   </si>
   <si>
@@ -644,7 +643,7 @@
     <t>deathNotificationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-DeathNotificationStatus-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-DeathNotificationStatus-1}
 </t>
   </si>
   <si>
@@ -713,7 +712,7 @@
     <t>nhsNumberVerificationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NHSNumberVerificationStatus-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-NHSNumberVerificationStatus-1}
 </t>
   </si>
   <si>
@@ -759,8 +758,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -854,7 +852,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -885,8 +883,7 @@
     <t>Whether this patient record is in active use.</t>
   </si>
   <si>
-    <t>Default is true. If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient
-This element is labeled as a modifier because when the patient record is marked as not active it is not expected to be used/referenced without being changed back to active.</t>
+    <t>Default is true. If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient  This element is labeled as a modifier because when the patient record is marked as not active it is not expected to be used/referenced without being changed back to active.</t>
   </si>
   <si>
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
@@ -957,7 +954,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-NameUse-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-NameUse-1</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -1259,7 +1256,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date. Gender of individual drives many clinical processes.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AdministrativeGender-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-AdministrativeGender-1</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1349,8 +1346,7 @@
     <t>Indicates if the individual is deceased or not.</t>
   </si>
   <si>
-    <t>If there's no value in the instance it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.
-This element is labeled as a modifier because once a patient is marked as deceased, the actions that are appropriate to perform on the patient may be significantly different.</t>
+    <t>If there's no value in the instance it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.  This element is labeled as a modifier because once a patient is marked as deceased, the actions that are appropriate to perform on the patient may be significantly different.</t>
   </si>
   <si>
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
@@ -1855,9 +1851,7 @@
     <t>Indicates whether the patient is part of a multiple (bool) or indicates the actual birth order (integer).</t>
   </si>
   <si>
-    <t>Where the valueInteger is provided, the number is the birth number in the sequence.
-E.g. The middle birth in tripplets would be valueInteger=2 and the third born would have valueInteger=3
-If a bool value was provided for this tripplets examle, then all 3 patient records would have valueBool=true (the ordering is not indicated).</t>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in tripplets would be valueInteger=2 and the third born would have valueInteger=3 If a bool value was provided for this tripplets examle, then all 3 patient records would have valueBool=true (the ordering is not indicated).</t>
   </si>
   <si>
     <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.</t>
@@ -2314,7 +2308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 </t>
   </si>
   <si>
@@ -2324,8 +2318,7 @@
     <t>Patient's nominated care provider.</t>
   </si>
   <si>
-    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disablity setting, or even organization that will provide people to perform the care provider roles.
-It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.</t>
+    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disablity setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.</t>
   </si>
   <si>
     <t>subjectOf.CareEvent.performer.AssignedEntity</t>
@@ -2361,12 +2354,10 @@
     <t>Link to another patient resource that concerns the same actual patient.</t>
   </si>
   <si>
-    <t>There is no assumption that linked patient records have mutual links. 
-This element is labelled as a modifier because it may not be the main Patient resource, and the referenced patient should be used instead of this Patient record. This is when the link.type value is 'replaced-by'.</t>
-  </si>
-  <si>
-    <t>There are multiple usecases: 
-* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and * Distribution of patient information across multiple servers.</t>
+    <t>There is no assumption that linked patient records have mutual links.   This element is labelled as a modifier because it may not be the main Patient resource, and the referenced patient should be used instead of this Patient record. This is when the link.type value is 'replaced-by'.</t>
+  </si>
+  <si>
+    <t>There are multiple usecases:   * Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and * Distribution of patient information across multiple servers.</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -2384,7 +2375,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(RelatedPerson|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -2594,7 +2585,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
